--- a/FABSI_List of Service HO_Master_R1.xlsx
+++ b/FABSI_List of Service HO_Master_R1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Saipem\Workload Excel\pythonApp\WorkloadDataPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CACCA6-C752-4113-A873-1AB535F3E32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626968F4-CA4C-40A7-AA83-F18C57D0D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{51896225-C556-48CE-9FF6-277D2841BA08}"/>
   </bookViews>
@@ -3812,7 +3812,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
